--- a/ballots/2013-09 DSTU/QA/FHIR DSTU Review Template - Eric Haas.xlsx
+++ b/ballots/2013-09 DSTU/QA/FHIR DSTU Review Template - Eric Haas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20640" windowHeight="11760" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Reviewer Name</t>
   </si>
@@ -137,12 +137,24 @@
   <si>
     <t>links to resources point to middle vs top of page for resources.  For example hyperlink address for Patient resources is "http://hl7.org/implement/standards/fhir/patient.html#Patient"  which, in my browser( IE 11)  puts me in the middle of the XML profile and not at the top of the page.  (Note the same thing occurs with resource hyperlinks for the UML diagrams and the XML profiles too)  However in section 6.8.5 Search Parameters the hyperlink to the patient resource is "http://hl7.org/implement/standards/fhir/patient.html" which points to the top of the page.  Suggest make all resource hyperlinks point to the top of the resource page instead to some random spot in the middle of the page.</t>
   </si>
+  <si>
+    <t>Grahame</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +344,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -366,6 +379,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,7 +555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -549,35 +563,35 @@
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -585,12 +599,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="285">
+    <row r="7" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="120">
+    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -602,24 +616,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="30">
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -636,17 +650,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="4" customWidth="1"/>
@@ -656,7 +670,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="30">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -675,8 +689,11 @@
       <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="135">
+      <c r="G1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -689,8 +706,11 @@
       <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="135">
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -703,8 +723,11 @@
       <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="120">
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -723,8 +746,11 @@
       <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30">
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -737,8 +763,11 @@
       <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="91.5" customHeight="1">
+      <c r="G5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -748,8 +777,11 @@
       <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="240">
+      <c r="G6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -764,6 +796,9 @@
       </c>
       <c r="F7" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
